--- a/mapa_interactivo_Traspasos.xlsx
+++ b/mapa_interactivo_Traspasos.xlsx
@@ -8,12 +8,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="General" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PEBCOM" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Propio" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NEW" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Optical_Power" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AYKO" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sin_Asignar" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Optical_Power" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PEBCOM" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AYKO" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sin_Asignar" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NEW" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Propio" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,32 +534,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2/1/2024</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AYACUCHO 1307</t>
+          <t>ZELARRAYAN 6147</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ICD30334341</t>
+          <t>804309801</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -583,18 +583,18 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.395498</v>
+        <v>-58.483821</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.59322</v>
+        <v>-34.677698</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>RET-B</t>
+          <t>PAV-Q</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -616,32 +616,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2655</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7/19/2024</t>
+          <t>8/2/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Arenales 2096</t>
+          <t>VUELTA DE OBLIGADO 3687</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>791764767</t>
+          <t>791898287</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Propio</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -649,11 +649,7 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Traspaso y retiro</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
         <v>1</v>
       </c>
@@ -669,65 +665,65 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.396996</v>
+        <v>-58.467531</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.594507</v>
+        <v>-34.547672</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>RET-I</t>
+          <t>BLO-R</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>ARATO-25058.PO.1RET</t>
+          <t>Fuera de Poligono OVL</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2655</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8/2/2024</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>VUELTA DE OBLIGADO 3687</t>
+          <t>THAMES 649</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>791898287</t>
+          <t>804309655</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -735,7 +731,11 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
+        </is>
+      </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
@@ -755,24 +755,24 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.467531</v>
+        <v>-58.441405</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.547672</v>
+        <v>-34.594348</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>BLO-R</t>
+          <t>VCR-H</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -784,32 +784,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>6029</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9/10/2024</t>
+          <t>3/13/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIAZ COLODRERO 3309</t>
+          <t>TANDIL 4746</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>796186684</t>
+          <t>803983204</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -817,13 +817,9 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>qap traspaso nodo TLC y Teco</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -832,23 +828,23 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.491722</v>
+        <v>-58.487666</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.565845</v>
+        <v>-34.649704</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -858,7 +854,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>PUE-F</t>
+          <t>PAV-N</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -870,27 +866,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3659</t>
+          <t>5708</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10/2/2024</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ALBERTI 59</t>
+          <t>SARMIENTO 1741</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>797489950</t>
+          <t>805579089</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -905,7 +901,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso y Retiro PROPIO</t>
+          <t>Pendiente de traspaso nodo y fuente</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -913,12 +909,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -927,14 +923,14 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.401798</v>
+        <v>-58.391419</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.61024</v>
+        <v>-34.605543</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -944,7 +940,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>CEN-G</t>
+          <t>CEN-E</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -956,27 +952,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3765</t>
+          <t>5731</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NAZCA AV. 1675</t>
+          <t>RIOBAMBA 659</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>798295165</t>
+          <t>805579188</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -991,7 +987,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Columna con base picada</t>
+          <t>Pendiente de traspaso nodo entro tambien como 7100</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -1004,7 +1000,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1013,24 +1009,24 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.47874</v>
+        <v>-58.394118</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.61462</v>
+        <v>-34.601416</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>NRA-M</t>
+          <t>RET-H</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1042,7 +1038,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3830</t>
+          <t>798513095</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1052,17 +1048,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>COLOMBRES 75</t>
+          <t>Rincon 343</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>798385574</t>
+          <t>798513095</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1077,7 +1073,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Traspaso y retiro de columna con Nodo Propio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1093,16 +1089,12 @@
           <t>Nodo Teco</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>-58.419354</v>
+        <v>-58.396196</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.612362</v>
+        <v>-34.613511</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1116,7 +1108,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>ALM-C</t>
+          <t>CEN-C</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1128,17 +1120,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>798513095</t>
+          <t>5682</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10/23/2024</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Rincon 343</t>
+          <t>República Bolivariana de Venezuela 2701</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1148,7 +1140,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>798513095</t>
+          <t>805507294</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1179,12 +1171,16 @@
           <t>Nodo Teco</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M9" t="n">
-        <v>-58.396196</v>
+        <v>-58.404913</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.613511</v>
+        <v>-34.615857</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1198,7 +1194,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>CEN-C</t>
+          <t>CEN-M</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1210,32 +1206,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>José Andrés Pacheco de Melo 2084</t>
+          <t>REPETTO, NICOLAS, DR. 93</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>ICD30593982</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1245,7 +1241,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
+          <t>traspasar nodo a columna nueva y pasar a retirar entro directamente con la nueva al lado</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1258,19 +1254,23 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M10" t="n">
-        <v>-58.395656</v>
+        <v>-58.443232</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.590364</v>
+        <v>-34.620007</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>RET-C</t>
+          <t>PCH-G</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1292,27 +1292,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4109</t>
+          <t>4579</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11/19/2024</t>
+          <t>1/9/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MOLDES 1971</t>
+          <t>PASCO 10</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>798307407</t>
+          <t>802438793</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>PIcada</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1345,28 +1345,28 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.458354</v>
+        <v>-58.397512</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.564883</v>
+        <v>-34.609923</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>COG-G</t>
+          <t>CEN-G</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1378,32 +1378,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>-143</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10/7/2024</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
+          <t>NAZCA AV. 1675</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>797752816</t>
+          <t>798295165</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1411,9 +1411,13 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Columna con base picada</t>
+        </is>
+      </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1422,7 +1426,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1431,14 +1435,14 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.458864</v>
+        <v>-58.47874</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.561167</v>
+        <v>-34.61462</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1448,7 +1452,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>COG-H</t>
+          <t>NRA-M</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1460,32 +1464,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5589</t>
+          <t>7051</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ARCOS 1520</t>
+          <t>MORENO, JOSE MARIA AV. 345</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>799540526</t>
+          <t>ICD30508311</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1495,11 +1499,11 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1508,33 +1512,33 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.449125</v>
+        <v>-58.435017</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.565958</v>
+        <v>-34.622044</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>BLO-M</t>
+          <t>PCH-M</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1546,32 +1550,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4082</t>
+          <t>4109</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12/21/2024</t>
+          <t>11/19/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MERCEDES 254</t>
+          <t>MOLDES 1971</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>801901755</t>
+          <t>798307407</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1581,7 +1585,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Colocar R200 para pedir traspaso de equipo</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1603,14 +1607,14 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.484232</v>
+        <v>-58.458354</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.631431</v>
+        <v>-34.564883</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1620,44 +1624,44 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>DEV-L</t>
+          <t>COG-G</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>ARATO-25058.PO.2DEV</t>
+          <t>Fuera de Poligono OVL</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4579</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1/9/2025</t>
+          <t>12/21/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PASCO 10</t>
+          <t>MERCEDES 254</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>802438793</t>
+          <t>801901755</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1667,7 +1671,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>PIcada</t>
+          <t>Colocar R200 para pedir traspaso de equipo</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1685,65 +1689,65 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.397512</v>
+        <v>-58.484232</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.609923</v>
+        <v>-34.631431</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>CEN-G</t>
+          <t>DEV-L</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Fuera de Poligono OVL</t>
+          <t>ARATO-25058.PO.2DEV</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>5999</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUENCA 3345</t>
+          <t>MARMOL, JOSE 228</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>802843289</t>
+          <t>808918687</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>Sin Asignar</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1753,11 +1757,11 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Se deriva directamente a traspaso de fuente ya que hay una columna existente</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1766,7 +1770,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1775,24 +1779,24 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.496935</v>
+        <v>-58.425858</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.599084</v>
+        <v>-34.61629</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>PUE-B</t>
+          <t>ALM-D</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1804,32 +1808,32 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4862</t>
+          <t>-440</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ARCOS 2263</t>
+          <t>LAPRIDA 1374</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>802857379</t>
+          <t>807005369</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1839,7 +1843,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1861,24 +1865,24 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.455082</v>
+        <v>-58.406585</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.558883</v>
+        <v>-34.592933</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>BLO-P</t>
+          <t>AGU-B</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1890,32 +1894,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6029</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3/13/2025</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TANDIL 4746</t>
+          <t>José Andrés Pacheco de Melo 2084</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>803983204</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1923,9 +1927,13 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
+        </is>
+      </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1937,30 +1945,26 @@
           <t>Fuente Teco</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
-        <v>-58.487666</v>
+        <v>-58.395656</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.649704</v>
+        <v>-34.590364</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>PAV-N</t>
+          <t>RET-C</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1972,32 +1976,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>5686</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>THAMES 649</t>
+          <t>HUMBERTO 1° 1999</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804309655</t>
+          <t>805507324</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2007,7 +2011,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
+          <t>Pendiente de traspaso fuente</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -2020,7 +2024,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2029,14 +2033,14 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.441405</v>
+        <v>-58.394304</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.594348</v>
+        <v>-34.621645</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2046,7 +2050,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>VCR-H</t>
+          <t>CEN-B</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -2058,32 +2062,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4179</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>9/10/2024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ZELARRAYAN 6147</t>
+          <t>DIAZ COLODRERO 3309</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804309801</t>
+          <t>796186684</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2091,7 +2095,11 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>qap traspaso nodo TLC y Teco</t>
+        </is>
+      </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
@@ -2111,24 +2119,24 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.483821</v>
+        <v>-58.491722</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.677698</v>
+        <v>-34.565845</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>PAV-Q</t>
+          <t>PUE-F</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -2140,32 +2148,32 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5682</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>República Bolivariana de Venezuela 2701</t>
+          <t>CUENCA 3345</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>805507294</t>
+          <t>802843289</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2193,28 +2201,28 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.404913</v>
+        <v>-58.496935</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.615857</v>
+        <v>-34.599084</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>CEN-M</t>
+          <t>PUE-B</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2226,27 +2234,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5686</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>10/23/2024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HUMBERTO 1° 1999</t>
+          <t>COLOMBRES 75</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>805507324</t>
+          <t>798385574</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2261,7 +2269,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso fuente</t>
+          <t>Traspaso y retiro de columna con Nodo Propio</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2274,7 +2282,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2283,14 +2291,14 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.394304</v>
+        <v>-58.419354</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.621645</v>
+        <v>-34.612362</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2300,7 +2308,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>CEN-B</t>
+          <t>ALM-C</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2312,32 +2320,32 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5708</t>
+          <t>-143</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>10/7/2024</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SARMIENTO 1741</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>805579089</t>
+          <t>797752816</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2345,13 +2353,9 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Pendiente de traspaso nodo y fuente</t>
-        </is>
-      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2360,7 +2364,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2369,24 +2373,24 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.391419</v>
+        <v>-58.458864</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.605543</v>
+        <v>-34.561167</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>CEN-E</t>
+          <t>COG-H</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2398,17 +2402,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5731</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>RIOBAMBA 659</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2418,12 +2422,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>805579188</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2431,11 +2435,7 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Pendiente de traspaso nodo entro tambien como 7100</t>
-        </is>
-      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
         <v>1</v>
       </c>
@@ -2455,10 +2455,10 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.394118</v>
+        <v>-58.401827</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.601416</v>
+        <v>-34.617667</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>RET-H</t>
+          <t>CEN-M</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2484,17 +2484,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>7229</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>9/16/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>AZURDUY JUANA 2627</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2504,12 +2504,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>ICD30814490</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t>Colocar columna para pedir traspaso de nodo propio</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2541,14 +2541,14 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.451835</v>
+        <v>-58.469008</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.562646</v>
+        <v>-34.552083</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>BLO-N</t>
+          <t>COG-L</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2570,17 +2570,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-440</t>
+          <t>826</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>2/1/2024</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LAPRIDA 1374</t>
+          <t>AYACUCHO 1307</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2590,12 +2590,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>807005369</t>
+          <t>ICD30334341</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2603,11 +2603,7 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Se coloco columna nueva queda pendiente de traspaso</t>
-        </is>
-      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
         <v>0</v>
       </c>
@@ -2623,14 +2619,14 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.406585</v>
+        <v>-58.395498</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.592933</v>
+        <v>-34.59322</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2644,7 +2640,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>AGU-B</t>
+          <t>RET-B</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2656,27 +2652,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>6998</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>8/20/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ALBERTI 191</t>
+          <t>ARENALES 3640</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ICD30334323</t>
+          <t>ICD30449342</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2691,7 +2687,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
+          <t>Colocar R400 si bien el nodo es de TLC la fuente es nuestra no desestimar</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2713,14 +2709,14 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.401624</v>
+        <v>-58.413584</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.612001</v>
+        <v>-34.58551</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2730,7 +2726,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>CEN-G</t>
+          <t>AGU-L</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2742,32 +2738,32 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>7/19/2024</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>Arenales 2096</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>791764767</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Propio</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2775,7 +2771,11 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Traspaso y retiro</t>
+        </is>
+      </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
@@ -2791,18 +2791,18 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.401827</v>
+        <v>-58.396996</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.617667</v>
+        <v>-34.594507</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2812,44 +2812,44 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>CEN-M</t>
+          <t>RET-I</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Fuera de Poligono OVL</t>
+          <t>ARATO-25058.PO.1RET</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5999</t>
+          <t>4862</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>8/12/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 228</t>
+          <t>ARCOS 2263</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>808918687</t>
+          <t>802857379</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Sin Asignar</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Se deriva directamente a traspaso de fuente ya que hay una columna existente</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2881,24 +2881,24 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.425858</v>
+        <v>-58.455082</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.61629</v>
+        <v>-34.558883</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>ALM-D</t>
+          <t>BLO-P</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2910,32 +2910,32 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6998</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ARENALES 3640</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ICD30449342</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Colocar R400 si bien el nodo es de TLC la fuente es nuestra no desestimar</t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2967,24 +2967,24 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.413584</v>
+        <v>-58.451835</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.58551</v>
+        <v>-34.562646</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>AGU-L</t>
+          <t>BLO-N</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2996,32 +2996,32 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7051</t>
+          <t>5589</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 345</t>
+          <t>ARCOS 1520</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ICD30508311</t>
+          <t>799540526</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -3044,33 +3044,33 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.435017</v>
+        <v>-58.449125</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.622044</v>
+        <v>-34.565958</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>PCH-M</t>
+          <t>BLO-M</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -3082,27 +3082,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4698</t>
+          <t>3659</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>10/2/2024</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>REPETTO, NICOLAS, DR. 93</t>
+          <t>ALBERTI 59</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ICD30593982</t>
+          <t>797489950</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>traspasar nodo a columna nueva y pasar a retirar entro directamente con la nueva al lado</t>
+          <t>Pendiente de Traspaso y Retiro PROPIO</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3135,18 +3135,18 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.443232</v>
+        <v>-58.401798</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.620007</v>
+        <v>-34.61024</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>PCH-G</t>
+          <t>CEN-G</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -3168,32 +3168,32 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>7229</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>9/16/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AZURDUY JUANA 2627</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ICD30814490</t>
+          <t>ICD30334323</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo propio</t>
+          <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3225,24 +3225,24 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.469008</v>
+        <v>-58.401624</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.552083</v>
+        <v>-34.612001</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>COG-L</t>
+          <t>CEN-G</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3257,6 +3257,539 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Caso</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>F. De Reclamo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Direccion</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Comuna</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>OT</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Proveedor Asignado</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Estado</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Observaciones</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Attachments</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo de tarea</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Equipo</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo de Elemento</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Coordenada_X</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Coordenada_Y</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Operacion</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Zona</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>PD</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4179</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3/27/2025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ZELARRAYAN 6147</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>804309801</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>-58.483821</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-34.677698</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>PAV-Q</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2114</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3/27/2025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>THAMES 649</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>804309655</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>-58.441405</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-34.594348</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>VCR-H</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>-440</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5/26/2025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LAPRIDA 1374</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>807005369</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>-58.406585</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-34.592933</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>AGU-B</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>798897149</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10/16/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>José Andrés Pacheco de Melo 2084</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>798897149</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>-58.395656</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-34.590364</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>RET-C</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4680</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1/22/2025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CUENCA 3345</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>802843289</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>-58.496935</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-34.599084</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>PUE-B</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3365,27 +3898,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>2655</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2/1/2024</t>
+          <t>8/2/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AYACUCHO 1307</t>
+          <t>VUELTA DE OBLIGADO 3687</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ICD30334341</t>
+          <t>791898287</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -3400,7 +3933,7 @@
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -3414,28 +3947,28 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.395498</v>
+        <v>-58.467531</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.59322</v>
+        <v>-34.547672</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>RET-B</t>
+          <t>BLO-R</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -3447,27 +3980,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2655</t>
+          <t>6029</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8/2/2024</t>
+          <t>3/13/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>VUELTA DE OBLIGADO 3687</t>
+          <t>TANDIL 4746</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>791898287</t>
+          <t>803983204</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3482,7 +4015,7 @@
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -3491,23 +4024,23 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.467531</v>
+        <v>-58.487666</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.547672</v>
+        <v>-34.649704</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -3517,7 +4050,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>BLO-R</t>
+          <t>PAV-N</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -3529,27 +4062,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3659</t>
+          <t>5708</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10/2/2024</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ALBERTI 59</t>
+          <t>SARMIENTO 1741</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>797489950</t>
+          <t>805579089</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3564,7 +4097,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso y Retiro PROPIO</t>
+          <t>Pendiente de traspaso nodo y fuente</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -3572,12 +4105,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -3586,14 +4119,14 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.401798</v>
+        <v>-58.391419</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.61024</v>
+        <v>-34.605543</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -3603,7 +4136,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>CEN-G</t>
+          <t>CEN-E</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -3615,27 +4148,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3765</t>
+          <t>5731</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NAZCA AV. 1675</t>
+          <t>RIOBAMBA 659</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>798295165</t>
+          <t>805579188</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -3650,7 +4183,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Columna con base picada</t>
+          <t>Pendiente de traspaso nodo entro tambien como 7100</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -3663,7 +4196,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -3672,24 +4205,24 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.47874</v>
+        <v>-58.394118</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.61462</v>
+        <v>-34.601416</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>NRA-M</t>
+          <t>RET-H</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -3701,7 +4234,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3830</t>
+          <t>798513095</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3711,17 +4244,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>COLOMBRES 75</t>
+          <t>Rincon 343</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>798385574</t>
+          <t>798513095</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3736,7 +4269,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Traspaso y retiro de columna con Nodo Propio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -3752,16 +4285,12 @@
           <t>Nodo Teco</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>-58.419354</v>
+        <v>-58.396196</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.612362</v>
+        <v>-34.613511</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -3775,7 +4304,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>ALM-C</t>
+          <t>CEN-C</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -3787,17 +4316,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>798513095</t>
+          <t>5682</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10/23/2024</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Rincon 343</t>
+          <t>República Bolivariana de Venezuela 2701</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3807,7 +4336,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>798513095</t>
+          <t>805507294</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -3838,12 +4367,16 @@
           <t>Nodo Teco</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M7" t="n">
-        <v>-58.396196</v>
+        <v>-58.404913</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.613511</v>
+        <v>-34.615857</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -3857,7 +4390,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>CEN-C</t>
+          <t>CEN-M</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -3869,27 +4402,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4109</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11/19/2024</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MOLDES 1971</t>
+          <t>REPETTO, NICOLAS, DR. 93</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>798307407</t>
+          <t>ICD30593982</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -3904,7 +4437,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>traspasar nodo a columna nueva y pasar a retirar entro directamente con la nueva al lado</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -3922,28 +4455,28 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.458354</v>
+        <v>-58.443232</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.564883</v>
+        <v>-34.620007</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>COG-G</t>
+          <t>PCH-G</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -4041,27 +4574,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6029</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3/13/2025</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TANDIL 4746</t>
+          <t>NAZCA AV. 1675</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>803983204</t>
+          <t>798295165</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -4074,9 +4607,13 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Columna con base picada</t>
+        </is>
+      </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -4090,18 +4627,18 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.487666</v>
+        <v>-58.47874</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.649704</v>
+        <v>-34.61462</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -4111,7 +4648,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>PAV-N</t>
+          <t>NRA-M</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4123,27 +4660,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5682</t>
+          <t>7051</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>República Bolivariana de Venezuela 2701</t>
+          <t>MORENO, JOSE MARIA AV. 345</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>805507294</t>
+          <t>ICD30508311</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -4158,7 +4695,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -4171,7 +4708,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -4180,14 +4717,14 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.404913</v>
+        <v>-58.435017</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.615857</v>
+        <v>-34.622044</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -4197,7 +4734,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>CEN-M</t>
+          <t>PCH-M</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4209,27 +4746,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5686</t>
+          <t>4109</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>11/19/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HUMBERTO 1° 1999</t>
+          <t>MOLDES 1971</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>805507324</t>
+          <t>798307407</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -4244,7 +4781,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso fuente</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -4257,7 +4794,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -4266,24 +4803,24 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.394304</v>
+        <v>-58.458354</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.621645</v>
+        <v>-34.564883</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>CEN-B</t>
+          <t>COG-G</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -4295,27 +4832,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5708</t>
+          <t>5686</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SARMIENTO 1741</t>
+          <t>HUMBERTO 1° 1999</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>805579089</t>
+          <t>805507324</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -4330,7 +4867,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso nodo y fuente</t>
+          <t>Pendiente de traspaso fuente</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -4343,7 +4880,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -4352,10 +4889,10 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.391419</v>
+        <v>-58.394304</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.605543</v>
+        <v>-34.621645</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -4369,7 +4906,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>CEN-E</t>
+          <t>CEN-B</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -4381,27 +4918,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5731</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>10/23/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RIOBAMBA 659</t>
+          <t>COLOMBRES 75</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>805579188</t>
+          <t>798385574</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -4416,7 +4953,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso nodo entro tambien como 7100</t>
+          <t>Traspaso y retiro de columna con Nodo Propio</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -4438,10 +4975,10 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.394118</v>
+        <v>-58.419354</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.601416</v>
+        <v>-34.612362</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -4455,7 +4992,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>RET-H</t>
+          <t>ALM-C</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -4467,27 +5004,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>826</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>2/1/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ALBERTI 191</t>
+          <t>AYACUCHO 1307</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ICD30334323</t>
+          <t>ICD30334341</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -4500,13 +5037,9 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -4515,23 +5048,23 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.401624</v>
+        <v>-58.395498</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.612001</v>
+        <v>-34.59322</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -4541,7 +5074,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>CEN-G</t>
+          <t>RET-B</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -4639,27 +5172,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7051</t>
+          <t>3659</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>10/2/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 345</t>
+          <t>ALBERTI 59</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ICD30508311</t>
+          <t>797489950</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4674,7 +5207,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
+          <t>Pendiente de Traspaso y Retiro PROPIO</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -4682,28 +5215,28 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.435017</v>
+        <v>-58.401798</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.622044</v>
+        <v>-34.61024</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -4713,7 +5246,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>PCH-M</t>
+          <t>CEN-G</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -4725,27 +5258,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4698</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>REPETTO, NICOLAS, DR. 93</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ICD30593982</t>
+          <t>ICD30334323</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4760,7 +5293,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>traspasar nodo a columna nueva y pasar a retirar entro directamente con la nueva al lado</t>
+          <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -4773,23 +5306,23 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.443232</v>
+        <v>-58.401624</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.620007</v>
+        <v>-34.612001</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -4799,209 +5332,12 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>PCH-G</t>
+          <t>CEN-G</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
           <t>Fuera de Poligono OVL</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:R2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Caso</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>F. De Reclamo</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Direccion</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Comuna</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>OT</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Proveedor Asignado</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Estado</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Observaciones</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Attachments</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Tipo de tarea</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Equipo</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Tipo de Elemento</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Coordenada_X</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Coordenada_Y</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Operacion</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Zona</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>PD</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7/19/2024</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Arenales 2096</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>791764767</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Propio</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Traspaso y retiro</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>-58.396996</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-34.594507</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Recoleta</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>RET-I</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>ARATO-25058.PO.1RET</t>
         </is>
       </c>
     </row>
@@ -5119,32 +5455,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9/10/2024</t>
+          <t>12/21/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIAZ COLODRERO 3309</t>
+          <t>MERCEDES 254</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>796186684</t>
+          <t>801901755</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -5154,7 +5490,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>qap traspaso nodo TLC y Teco</t>
+          <t>Colocar R200 para pedir traspaso de equipo</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -5176,14 +5512,14 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.491722</v>
+        <v>-58.484232</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.565845</v>
+        <v>-34.631431</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -5193,29 +5529,29 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>PUE-F</t>
+          <t>DEV-L</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Fuera de Poligono OVL</t>
+          <t>ARATO-25058.PO.2DEV</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5589</t>
+          <t>-143</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>10/7/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ARCOS 1520</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5225,12 +5561,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>799540526</t>
+          <t>797752816</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -5238,11 +5574,7 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -5262,14 +5594,14 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.449125</v>
+        <v>-58.458864</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.565958</v>
+        <v>-34.561167</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -5279,7 +5611,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>BLO-M</t>
+          <t>COG-H</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -5291,32 +5623,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4862</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ARCOS 2263</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>802857379</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -5324,13 +5656,9 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>picada</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -5348,24 +5676,24 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.455082</v>
+        <v>-58.401827</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.558883</v>
+        <v>-34.617667</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>BLO-P</t>
+          <t>CEN-M</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -5377,17 +5705,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7229</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9/16/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AZURDUY JUANA 2627</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -5397,12 +5725,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ICD30814490</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -5412,7 +5740,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo propio</t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -5434,14 +5762,14 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.469008</v>
+        <v>-58.451835</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.552083</v>
+        <v>-34.562646</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -5451,7 +5779,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>COG-L</t>
+          <t>BLO-N</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -5471,7 +5799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5574,32 +5902,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>5999</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>José Andrés Pacheco de Melo 2084</t>
+          <t>MARMOL, JOSE 228</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>808918687</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>Sin Asignar</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -5609,11 +5937,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
+          <t>Se deriva directamente a traspaso de fuente ya que hay una columna existente</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -5625,16 +5953,20 @@
           <t>Fuente Teco</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M2" t="n">
-        <v>-58.395656</v>
+        <v>-58.425858</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.590364</v>
+        <v>-34.61629</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -5644,350 +5976,10 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>RET-C</t>
+          <t>ALM-D</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
-        <is>
-          <t>Fuera de Poligono OVL</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4680</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1/22/2025</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CUENCA 3345</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>802843289</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>-58.496935</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-34.599084</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Paternal</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>PUE-B</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Fuera de Poligono OVL</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2114</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3/27/2025</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>THAMES 649</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>804309655</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>-58.441405</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-34.594348</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>VCR-H</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Fuera de Poligono OVL</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4179</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3/27/2025</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ZELARRAYAN 6147</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>804309801</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>-58.483821</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-34.677698</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>PAV-Q</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Fuera de Poligono OVL</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>-440</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>5/26/2025</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>LAPRIDA 1374</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>807005369</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Se coloco columna nueva queda pendiente de traspaso</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>-58.406585</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-34.592933</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Recoleta</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>AGU-B</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
         <is>
           <t>Fuera de Poligono OVL</t>
         </is>
@@ -6107,32 +6099,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>-143</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10/7/2024</t>
+          <t>9/10/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
+          <t>DIAZ COLODRERO 3309</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>797752816</t>
+          <t>796186684</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -6140,9 +6132,13 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>qap traspaso nodo TLC y Teco</t>
+        </is>
+      </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -6160,14 +6156,14 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.458864</v>
+        <v>-58.491722</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.561167</v>
+        <v>-34.565845</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -6177,7 +6173,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>COG-H</t>
+          <t>PUE-F</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -6189,32 +6185,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4082</t>
+          <t>7229</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12/21/2024</t>
+          <t>9/16/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MERCEDES 254</t>
+          <t>AZURDUY JUANA 2627</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>801901755</t>
+          <t>ICD30814490</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -6224,7 +6220,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Colocar R200 para pedir traspaso de equipo</t>
+          <t>Colocar columna para pedir traspaso de nodo propio</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -6246,14 +6242,14 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.484232</v>
+        <v>-58.469008</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.631431</v>
+        <v>-34.552083</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -6263,29 +6259,29 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>DEV-L</t>
+          <t>COG-L</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>ARATO-25058.PO.2DEV</t>
+          <t>Fuera de Poligono OVL</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>4862</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>ARCOS 2263</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -6295,12 +6291,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>802857379</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -6310,11 +6306,11 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -6332,14 +6328,14 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.451835</v>
+        <v>-58.455082</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.562646</v>
+        <v>-34.558883</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -6349,7 +6345,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>BLO-N</t>
+          <t>BLO-P</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -6361,32 +6357,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>5589</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>ARCOS 1520</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>799540526</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -6394,9 +6390,13 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -6414,24 +6414,24 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.401827</v>
+        <v>-58.449125</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.617667</v>
+        <v>-34.565958</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>CEN-M</t>
+          <t>BLO-M</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -6554,32 +6554,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5999</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8/12/2025</t>
+          <t>7/19/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 228</t>
+          <t>Arenales 2096</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>808918687</t>
+          <t>791764767</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Sin Asignar</t>
+          <t>Propio</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -6589,11 +6589,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Se deriva directamente a traspaso de fuente ya que hay una columna existente</t>
+          <t>Traspaso y retiro</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -6602,23 +6602,23 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.425858</v>
+        <v>-58.396996</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.61629</v>
+        <v>-34.594507</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -6628,12 +6628,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>ALM-D</t>
+          <t>RET-I</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Fuera de Poligono OVL</t>
+          <t>ARATO-25058.PO.1RET</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Traspasos.xlsx
+++ b/mapa_interactivo_Traspasos.xlsx
@@ -8,12 +8,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="General" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Optical_Power" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PEBCOM" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AYKO" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sin_Asignar" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NEW" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Propio" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PEBCOM" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Propio" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NEW" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Optical_Power" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AYKO" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sin_Asignar" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,32 +534,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4179</t>
+          <t>826</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>2/1/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ZELARRAYAN 6147</t>
+          <t>AYACUCHO 1307</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>804309801</t>
+          <t>ICD30334341</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -583,18 +583,18 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.483821</v>
+        <v>-58.395498</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.677698</v>
+        <v>-34.59322</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>PAV-Q</t>
+          <t>RET-B</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -616,32 +616,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2655</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8/2/2024</t>
+          <t>7/19/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>VUELTA DE OBLIGADO 3687</t>
+          <t>Arenales 2096</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>791898287</t>
+          <t>791764767</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Propio</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -649,7 +649,11 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Traspaso y retiro</t>
+        </is>
+      </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
@@ -665,65 +669,65 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.467531</v>
+        <v>-58.396996</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.547672</v>
+        <v>-34.594507</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>BLO-R</t>
+          <t>RET-I</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Fuera de Poligono OVL</t>
+          <t>ARATO-25058.PO.1RET</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>2655</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>8/2/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>THAMES 649</t>
+          <t>VUELTA DE OBLIGADO 3687</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>804309655</t>
+          <t>791898287</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -731,11 +735,7 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
         <v>1</v>
       </c>
@@ -755,24 +755,24 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.441405</v>
+        <v>-58.467531</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.594348</v>
+        <v>-34.547672</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>VCR-H</t>
+          <t>BLO-R</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -784,32 +784,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6029</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3/13/2025</t>
+          <t>9/10/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TANDIL 4746</t>
+          <t>DIAZ COLODRERO 3309</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>803983204</t>
+          <t>796186684</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -817,9 +817,13 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>qap traspaso nodo TLC y Teco</t>
+        </is>
+      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -828,23 +832,23 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.487666</v>
+        <v>-58.491722</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.649704</v>
+        <v>-34.565845</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -854,7 +858,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>PAV-N</t>
+          <t>PUE-F</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -866,27 +870,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5708</t>
+          <t>3659</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>10/2/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SARMIENTO 1741</t>
+          <t>ALBERTI 59</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>805579089</t>
+          <t>797489950</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -901,7 +905,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso nodo y fuente</t>
+          <t>Pendiente de Traspaso y Retiro PROPIO</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -909,12 +913,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -923,14 +927,14 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.391419</v>
+        <v>-58.401798</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.605543</v>
+        <v>-34.61024</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -940,7 +944,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>CEN-E</t>
+          <t>CEN-G</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -952,27 +956,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5731</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RIOBAMBA 659</t>
+          <t>NAZCA AV. 1675</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>805579188</t>
+          <t>798295165</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -987,7 +991,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso nodo entro tambien como 7100</t>
+          <t>Columna con base picada</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -1000,7 +1004,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1009,24 +1013,24 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.394118</v>
+        <v>-58.47874</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.601416</v>
+        <v>-34.61462</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>RET-H</t>
+          <t>NRA-M</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1038,7 +1042,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>798513095</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1048,17 +1052,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Rincon 343</t>
+          <t>COLOMBRES 75</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>798513095</t>
+          <t>798385574</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1073,7 +1077,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Traspaso y retiro de columna con Nodo Propio</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1089,12 +1093,16 @@
           <t>Nodo Teco</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M8" t="n">
-        <v>-58.396196</v>
+        <v>-58.419354</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.613511</v>
+        <v>-34.612362</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1108,7 +1116,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>CEN-C</t>
+          <t>ALM-C</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1120,17 +1128,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5682</t>
+          <t>798513095</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>10/23/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>República Bolivariana de Venezuela 2701</t>
+          <t>Rincon 343</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1140,7 +1148,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>805507294</t>
+          <t>798513095</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1171,16 +1179,12 @@
           <t>Nodo Teco</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>-58.404913</v>
+        <v>-58.396196</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.615857</v>
+        <v>-34.613511</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1194,7 +1198,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>CEN-M</t>
+          <t>CEN-C</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1206,32 +1210,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4698</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>REPETTO, NICOLAS, DR. 93</t>
+          <t>José Andrés Pacheco de Melo 2084</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ICD30593982</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1241,7 +1245,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>traspasar nodo a columna nueva y pasar a retirar entro directamente con la nueva al lado</t>
+          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1254,23 +1258,19 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+          <t>Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>-58.443232</v>
+        <v>-58.395656</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.620007</v>
+        <v>-34.590364</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>PCH-G</t>
+          <t>RET-C</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1292,27 +1292,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4579</t>
+          <t>4109</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1/9/2025</t>
+          <t>11/19/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PASCO 10</t>
+          <t>MOLDES 1971</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>802438793</t>
+          <t>798307407</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>PIcada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1345,28 +1345,28 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.397512</v>
+        <v>-58.458354</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.609923</v>
+        <v>-34.564883</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>CEN-G</t>
+          <t>COG-G</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1378,32 +1378,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3765</t>
+          <t>-143</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>10/7/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NAZCA AV. 1675</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>798295165</t>
+          <t>797752816</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1411,13 +1411,9 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Columna con base picada</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1426,7 +1422,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1435,14 +1431,14 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.47874</v>
+        <v>-58.458864</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.61462</v>
+        <v>-34.561167</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1452,7 +1448,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>NRA-M</t>
+          <t>COG-H</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1464,32 +1460,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7051</t>
+          <t>5589</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 345</t>
+          <t>ARCOS 1520</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ICD30508311</t>
+          <t>799540526</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1499,11 +1495,11 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1512,33 +1508,33 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.435017</v>
+        <v>-58.449125</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.622044</v>
+        <v>-34.565958</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>PCH-M</t>
+          <t>BLO-M</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1550,32 +1546,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4109</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11/19/2024</t>
+          <t>12/21/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MOLDES 1971</t>
+          <t>MERCEDES 254</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>798307407</t>
+          <t>801901755</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1585,7 +1581,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Colocar R200 para pedir traspaso de equipo</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1607,14 +1603,14 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.458354</v>
+        <v>-58.484232</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.564883</v>
+        <v>-34.631431</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1624,44 +1620,44 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>COG-G</t>
+          <t>DEV-L</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Fuera de Poligono OVL</t>
+          <t>ARATO-25058.PO.2DEV</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4082</t>
+          <t>4579</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12/21/2024</t>
+          <t>1/9/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MERCEDES 254</t>
+          <t>PASCO 10</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>801901755</t>
+          <t>802438793</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1671,7 +1667,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Colocar R200 para pedir traspaso de equipo</t>
+          <t>PIcada</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1689,65 +1685,65 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.484232</v>
+        <v>-58.397512</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.631431</v>
+        <v>-34.609923</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>DEV-L</t>
+          <t>CEN-G</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>ARATO-25058.PO.2DEV</t>
+          <t>Fuera de Poligono OVL</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5999</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8/12/2025</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 228</t>
+          <t>CUENCA 3345</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>808918687</t>
+          <t>802843289</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Sin Asignar</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1757,11 +1753,11 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Se deriva directamente a traspaso de fuente ya que hay una columna existente</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1770,7 +1766,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1779,24 +1775,24 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.425858</v>
+        <v>-58.496935</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.61629</v>
+        <v>-34.599084</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>ALM-D</t>
+          <t>PUE-B</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1808,32 +1804,32 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-440</t>
+          <t>4862</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LAPRIDA 1374</t>
+          <t>ARCOS 2263</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>807005369</t>
+          <t>802857379</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1843,7 +1839,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Se coloco columna nueva queda pendiente de traspaso</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1865,24 +1861,24 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.406585</v>
+        <v>-58.455082</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.592933</v>
+        <v>-34.558883</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>AGU-B</t>
+          <t>BLO-P</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1894,32 +1890,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>6029</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>3/13/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>José Andrés Pacheco de Melo 2084</t>
+          <t>TANDIL 4746</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>803983204</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1927,13 +1923,9 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
-        </is>
-      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1945,26 +1937,30 @@
           <t>Fuente Teco</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M18" t="n">
-        <v>-58.395656</v>
+        <v>-58.487666</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.590364</v>
+        <v>-34.649704</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>RET-C</t>
+          <t>PAV-N</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1976,32 +1972,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5686</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>HUMBERTO 1° 1999</t>
+          <t>THAMES 649</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>805507324</t>
+          <t>804309655</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2011,7 +2007,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso fuente</t>
+          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -2024,7 +2020,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2033,14 +2029,14 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.394304</v>
+        <v>-58.441405</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.621645</v>
+        <v>-34.594348</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2050,7 +2046,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>CEN-B</t>
+          <t>VCR-H</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -2062,32 +2058,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9/10/2024</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DIAZ COLODRERO 3309</t>
+          <t>ZELARRAYAN 6147</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>796186684</t>
+          <t>804309801</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2095,11 +2091,7 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>qap traspaso nodo TLC y Teco</t>
-        </is>
-      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
         <v>1</v>
       </c>
@@ -2119,24 +2111,24 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.491722</v>
+        <v>-58.483821</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.565845</v>
+        <v>-34.677698</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>PUE-F</t>
+          <t>PAV-Q</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -2148,32 +2140,32 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>5682</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUENCA 3345</t>
+          <t>República Bolivariana de Venezuela 2701</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>802843289</t>
+          <t>805507294</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2201,28 +2193,28 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.496935</v>
+        <v>-58.404913</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.599084</v>
+        <v>-34.615857</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>PUE-B</t>
+          <t>CEN-M</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2234,27 +2226,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3830</t>
+          <t>5686</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10/23/2024</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>COLOMBRES 75</t>
+          <t>HUMBERTO 1° 1999</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>798385574</t>
+          <t>805507324</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2269,7 +2261,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Traspaso y retiro de columna con Nodo Propio</t>
+          <t>Pendiente de traspaso fuente</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2282,7 +2274,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2291,14 +2283,14 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.419354</v>
+        <v>-58.394304</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.612362</v>
+        <v>-34.621645</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2308,7 +2300,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>ALM-C</t>
+          <t>CEN-B</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2320,32 +2312,32 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-143</t>
+          <t>5708</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>10/7/2024</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
+          <t>SARMIENTO 1741</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>797752816</t>
+          <t>805579089</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2353,9 +2345,13 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Pendiente de traspaso nodo y fuente</t>
+        </is>
+      </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2364,7 +2360,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2373,24 +2369,24 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.458864</v>
+        <v>-58.391419</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.561167</v>
+        <v>-34.605543</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>COG-H</t>
+          <t>CEN-E</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2402,17 +2398,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>5731</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>RIOBAMBA 659</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2422,12 +2418,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>805579188</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2435,7 +2431,11 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Pendiente de traspaso nodo entro tambien como 7100</t>
+        </is>
+      </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
@@ -2455,10 +2455,10 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.401827</v>
+        <v>-58.394118</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.617667</v>
+        <v>-34.601416</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>CEN-M</t>
+          <t>RET-H</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2484,17 +2484,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7229</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>9/16/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AZURDUY JUANA 2627</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2504,12 +2504,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ICD30814490</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo propio</t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2541,14 +2541,14 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.469008</v>
+        <v>-58.451835</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.552083</v>
+        <v>-34.562646</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>COG-L</t>
+          <t>BLO-N</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2570,17 +2570,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>-440</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2/1/2024</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AYACUCHO 1307</t>
+          <t>LAPRIDA 1374</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2590,12 +2590,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ICD30334341</t>
+          <t>807005369</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2603,7 +2603,11 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
+        </is>
+      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
@@ -2619,14 +2623,14 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.395498</v>
+        <v>-58.406585</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.59322</v>
+        <v>-34.592933</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2640,7 +2644,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>RET-B</t>
+          <t>AGU-B</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2652,27 +2656,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6998</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ARENALES 3640</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ICD30449342</t>
+          <t>ICD30334323</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2687,7 +2691,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Colocar R400 si bien el nodo es de TLC la fuente es nuestra no desestimar</t>
+          <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2709,14 +2713,14 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.413584</v>
+        <v>-58.401624</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.58551</v>
+        <v>-34.612001</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2726,7 +2730,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>AGU-L</t>
+          <t>CEN-G</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2738,32 +2742,32 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>7/19/2024</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Arenales 2096</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>791764767</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Propio</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2771,11 +2775,7 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Traspaso y retiro</t>
-        </is>
-      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
         <v>1</v>
       </c>
@@ -2791,18 +2791,18 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.396996</v>
+        <v>-58.401827</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.594507</v>
+        <v>-34.617667</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2812,44 +2812,44 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>RET-I</t>
+          <t>CEN-M</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>ARATO-25058.PO.1RET</t>
+          <t>Fuera de Poligono OVL</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4862</t>
+          <t>5999</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ARCOS 2263</t>
+          <t>MARMOL, JOSE 228</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>802857379</t>
+          <t>808918687</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Sin Asignar</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Se deriva directamente a traspaso de fuente ya que hay una columna existente</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2881,24 +2881,24 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.455082</v>
+        <v>-58.425858</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.558883</v>
+        <v>-34.61629</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>BLO-P</t>
+          <t>ALM-D</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2910,32 +2910,32 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>6998</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>8/20/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>ARENALES 3640</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>ICD30449342</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t>Colocar R400 si bien el nodo es de TLC la fuente es nuestra no desestimar</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2967,24 +2967,24 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.451835</v>
+        <v>-58.413584</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.562646</v>
+        <v>-34.58551</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>BLO-N</t>
+          <t>AGU-L</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2996,32 +2996,32 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5589</t>
+          <t>7051</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ARCOS 1520</t>
+          <t>MORENO, JOSE MARIA AV. 345</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>799540526</t>
+          <t>ICD30508311</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -3044,33 +3044,33 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.449125</v>
+        <v>-58.435017</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.565958</v>
+        <v>-34.622044</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>BLO-M</t>
+          <t>PCH-M</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -3082,27 +3082,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3659</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>10/2/2024</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ALBERTI 59</t>
+          <t>REPETTO, NICOLAS, DR. 93</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>797489950</t>
+          <t>ICD30593982</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso y Retiro PROPIO</t>
+          <t>traspasar nodo a columna nueva y pasar a retirar entro directamente con la nueva al lado</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3135,18 +3135,18 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.401798</v>
+        <v>-58.443232</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.61024</v>
+        <v>-34.620007</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>CEN-G</t>
+          <t>PCH-G</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -3168,32 +3168,32 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>7229</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>9/16/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ALBERTI 191</t>
+          <t>AZURDUY JUANA 2627</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ICD30334323</t>
+          <t>ICD30814490</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
+          <t>Colocar columna para pedir traspaso de nodo propio</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3225,24 +3225,24 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.401624</v>
+        <v>-58.469008</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.612001</v>
+        <v>-34.552083</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>CEN-G</t>
+          <t>COG-L</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3257,539 +3257,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:R6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Caso</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>F. De Reclamo</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Direccion</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Comuna</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>OT</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Proveedor Asignado</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Estado</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Observaciones</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Attachments</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Tipo de tarea</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Equipo</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Tipo de Elemento</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Coordenada_X</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Coordenada_Y</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Operacion</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Zona</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>PD</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4179</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>3/27/2025</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ZELARRAYAN 6147</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>804309801</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>-58.483821</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-34.677698</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>PAV-Q</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Fuera de Poligono OVL</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2114</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3/27/2025</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>THAMES 649</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>804309655</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>-58.441405</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-34.594348</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>VCR-H</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Fuera de Poligono OVL</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>-440</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>5/26/2025</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LAPRIDA 1374</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>807005369</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Se coloco columna nueva queda pendiente de traspaso</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>-58.406585</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-34.592933</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Recoleta</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>AGU-B</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Fuera de Poligono OVL</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>798897149</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>10/16/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>José Andrés Pacheco de Melo 2084</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>798897149</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Fuente Teco</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>-58.395656</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-34.590364</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Recoleta</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>RET-C</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Fuera de Poligono OVL</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4680</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1/22/2025</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CUENCA 3345</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>802843289</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>-58.496935</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-34.599084</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Paternal</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>PUE-B</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Fuera de Poligono OVL</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3898,27 +3365,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2655</t>
+          <t>826</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8/2/2024</t>
+          <t>2/1/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>VUELTA DE OBLIGADO 3687</t>
+          <t>AYACUCHO 1307</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>791898287</t>
+          <t>ICD30334341</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -3933,7 +3400,7 @@
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -3947,28 +3414,28 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.467531</v>
+        <v>-58.395498</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.547672</v>
+        <v>-34.59322</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>BLO-R</t>
+          <t>RET-B</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -3980,27 +3447,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6029</t>
+          <t>2655</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3/13/2025</t>
+          <t>8/2/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TANDIL 4746</t>
+          <t>VUELTA DE OBLIGADO 3687</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>803983204</t>
+          <t>791898287</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -4015,7 +3482,7 @@
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -4024,23 +3491,23 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.487666</v>
+        <v>-58.467531</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.649704</v>
+        <v>-34.547672</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -4050,7 +3517,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>PAV-N</t>
+          <t>BLO-R</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -4062,27 +3529,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5708</t>
+          <t>3659</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>10/2/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SARMIENTO 1741</t>
+          <t>ALBERTI 59</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>805579089</t>
+          <t>797489950</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -4097,7 +3564,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso nodo y fuente</t>
+          <t>Pendiente de Traspaso y Retiro PROPIO</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -4105,12 +3572,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -4119,14 +3586,14 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.391419</v>
+        <v>-58.401798</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.605543</v>
+        <v>-34.61024</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -4136,7 +3603,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>CEN-E</t>
+          <t>CEN-G</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -4148,27 +3615,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5731</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RIOBAMBA 659</t>
+          <t>NAZCA AV. 1675</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>805579188</t>
+          <t>798295165</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -4183,7 +3650,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso nodo entro tambien como 7100</t>
+          <t>Columna con base picada</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -4196,7 +3663,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -4205,24 +3672,24 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.394118</v>
+        <v>-58.47874</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.601416</v>
+        <v>-34.61462</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>RET-H</t>
+          <t>NRA-M</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -4234,7 +3701,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>798513095</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4244,17 +3711,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rincon 343</t>
+          <t>COLOMBRES 75</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>798513095</t>
+          <t>798385574</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -4269,7 +3736,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Traspaso y retiro de columna con Nodo Propio</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -4285,12 +3752,16 @@
           <t>Nodo Teco</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M6" t="n">
-        <v>-58.396196</v>
+        <v>-58.419354</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.613511</v>
+        <v>-34.612362</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -4304,7 +3775,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>CEN-C</t>
+          <t>ALM-C</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -4316,17 +3787,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5682</t>
+          <t>798513095</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>10/23/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>República Bolivariana de Venezuela 2701</t>
+          <t>Rincon 343</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -4336,7 +3807,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>805507294</t>
+          <t>798513095</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -4367,16 +3838,12 @@
           <t>Nodo Teco</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>-58.404913</v>
+        <v>-58.396196</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.615857</v>
+        <v>-34.613511</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -4390,7 +3857,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>CEN-M</t>
+          <t>CEN-C</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -4402,27 +3869,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4698</t>
+          <t>4109</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>11/19/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>REPETTO, NICOLAS, DR. 93</t>
+          <t>MOLDES 1971</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ICD30593982</t>
+          <t>798307407</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -4437,7 +3904,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>traspasar nodo a columna nueva y pasar a retirar entro directamente con la nueva al lado</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -4455,28 +3922,28 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.443232</v>
+        <v>-58.458354</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.620007</v>
+        <v>-34.564883</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>PCH-G</t>
+          <t>COG-G</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -4574,27 +4041,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3765</t>
+          <t>6029</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>3/13/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NAZCA AV. 1675</t>
+          <t>TANDIL 4746</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>798295165</t>
+          <t>803983204</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -4607,13 +4074,9 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Columna con base picada</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -4627,18 +4090,18 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.47874</v>
+        <v>-58.487666</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.61462</v>
+        <v>-34.649704</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -4648,7 +4111,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>NRA-M</t>
+          <t>PAV-N</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4660,27 +4123,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7051</t>
+          <t>5682</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 345</t>
+          <t>República Bolivariana de Venezuela 2701</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ICD30508311</t>
+          <t>805507294</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -4695,7 +4158,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -4708,7 +4171,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -4717,14 +4180,14 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.435017</v>
+        <v>-58.404913</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.622044</v>
+        <v>-34.615857</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -4734,7 +4197,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>PCH-M</t>
+          <t>CEN-M</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4746,27 +4209,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4109</t>
+          <t>5686</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11/19/2024</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MOLDES 1971</t>
+          <t>HUMBERTO 1° 1999</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>798307407</t>
+          <t>805507324</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -4781,7 +4244,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Pendiente de traspaso fuente</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -4794,7 +4257,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -4803,24 +4266,24 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.458354</v>
+        <v>-58.394304</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.564883</v>
+        <v>-34.621645</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>COG-G</t>
+          <t>CEN-B</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -4832,27 +4295,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5686</t>
+          <t>5708</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>HUMBERTO 1° 1999</t>
+          <t>SARMIENTO 1741</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>805507324</t>
+          <t>805579089</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -4867,7 +4330,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso fuente</t>
+          <t>Pendiente de traspaso nodo y fuente</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -4880,7 +4343,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -4889,10 +4352,10 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.394304</v>
+        <v>-58.391419</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.621645</v>
+        <v>-34.605543</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -4906,7 +4369,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>CEN-B</t>
+          <t>CEN-E</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -4918,27 +4381,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3830</t>
+          <t>5731</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10/23/2024</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>COLOMBRES 75</t>
+          <t>RIOBAMBA 659</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>798385574</t>
+          <t>805579188</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -4953,7 +4416,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Traspaso y retiro de columna con Nodo Propio</t>
+          <t>Pendiente de traspaso nodo entro tambien como 7100</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -4975,10 +4438,10 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.419354</v>
+        <v>-58.394118</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.612362</v>
+        <v>-34.601416</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -4992,7 +4455,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>ALM-C</t>
+          <t>RET-H</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5004,27 +4467,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2/1/2024</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AYACUCHO 1307</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ICD30334341</t>
+          <t>ICD30334323</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -5037,9 +4500,13 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Colocar R400 para traspasar fuente teco</t>
+        </is>
+      </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -5048,23 +4515,23 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.395498</v>
+        <v>-58.401624</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.59322</v>
+        <v>-34.612001</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -5074,7 +4541,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>RET-B</t>
+          <t>CEN-G</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -5172,27 +4639,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3659</t>
+          <t>7051</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10/2/2024</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ALBERTI 59</t>
+          <t>MORENO, JOSE MARIA AV. 345</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>797489950</t>
+          <t>ICD30508311</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -5207,7 +4674,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso y Retiro PROPIO</t>
+          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -5215,28 +4682,28 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.401798</v>
+        <v>-58.435017</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.61024</v>
+        <v>-34.622044</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -5246,7 +4713,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>CEN-G</t>
+          <t>PCH-M</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -5258,27 +4725,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ALBERTI 191</t>
+          <t>REPETTO, NICOLAS, DR. 93</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ICD30334323</t>
+          <t>ICD30593982</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -5293,7 +4760,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
+          <t>traspasar nodo a columna nueva y pasar a retirar entro directamente con la nueva al lado</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -5306,23 +4773,23 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.401624</v>
+        <v>-58.443232</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.612001</v>
+        <v>-34.620007</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -5332,12 +4799,209 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>CEN-G</t>
+          <t>PCH-G</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
           <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Caso</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>F. De Reclamo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Direccion</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Comuna</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>OT</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Proveedor Asignado</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Estado</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Observaciones</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Attachments</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo de tarea</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Equipo</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo de Elemento</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Coordenada_X</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Coordenada_Y</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Operacion</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Zona</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>PD</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>7/19/2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Arenales 2096</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>791764767</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Traspaso y retiro</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>-58.396996</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-34.594507</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>RET-I</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>ARATO-25058.PO.1RET</t>
         </is>
       </c>
     </row>
@@ -5455,32 +5119,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4082</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12/21/2024</t>
+          <t>9/10/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MERCEDES 254</t>
+          <t>DIAZ COLODRERO 3309</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>801901755</t>
+          <t>796186684</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -5490,7 +5154,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Colocar R200 para pedir traspaso de equipo</t>
+          <t>qap traspaso nodo TLC y Teco</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -5512,14 +5176,14 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.484232</v>
+        <v>-58.491722</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.631431</v>
+        <v>-34.565845</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -5529,29 +5193,29 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>DEV-L</t>
+          <t>PUE-F</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>ARATO-25058.PO.2DEV</t>
+          <t>Fuera de Poligono OVL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>-143</t>
+          <t>5589</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10/7/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
+          <t>ARCOS 1520</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5561,12 +5225,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>797752816</t>
+          <t>799540526</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -5574,7 +5238,11 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -5594,14 +5262,14 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.458864</v>
+        <v>-58.449125</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.561167</v>
+        <v>-34.565958</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -5611,7 +5279,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>COG-H</t>
+          <t>BLO-M</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -5623,32 +5291,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>4862</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>ARCOS 2263</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>802857379</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -5656,9 +5324,13 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>picada</t>
+        </is>
+      </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -5676,24 +5348,24 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.401827</v>
+        <v>-58.455082</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.617667</v>
+        <v>-34.558883</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>CEN-M</t>
+          <t>BLO-P</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -5705,17 +5377,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>7229</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>9/16/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>AZURDUY JUANA 2627</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -5725,12 +5397,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>ICD30814490</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -5740,7 +5412,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t>Colocar columna para pedir traspaso de nodo propio</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -5762,14 +5434,14 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.451835</v>
+        <v>-58.469008</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.562646</v>
+        <v>-34.552083</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -5779,7 +5451,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>BLO-N</t>
+          <t>COG-L</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -5799,7 +5471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5902,32 +5574,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5999</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8/12/2025</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 228</t>
+          <t>José Andrés Pacheco de Melo 2084</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>808918687</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Sin Asignar</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -5937,49 +5609,385 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Se deriva directamente a traspaso de fuente ya que hay una columna existente</t>
+          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
         </is>
       </c>
       <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>-58.395656</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-34.590364</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>RET-C</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4680</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1/22/2025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CUENCA 3345</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>802843289</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>-58.496935</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-34.599084</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>PUE-B</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2114</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3/27/2025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>THAMES 649</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>804309655</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>-58.441405</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-34.594348</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>VCR-H</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4179</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3/27/2025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ZELARRAYAN 6147</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>804309801</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>-58.483821</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-34.677698</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>PAV-Q</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>-440</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5/26/2025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>LAPRIDA 1374</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>807005369</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Fuente Teco</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M2" t="n">
-        <v>-58.425858</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-34.61629</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="M6" t="n">
+        <v>-58.406585</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-34.592933</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>ALM-D</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>AGU-B</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>Fuera de Poligono OVL</t>
         </is>
@@ -6099,32 +6107,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>-143</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9/10/2024</t>
+          <t>10/7/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIAZ COLODRERO 3309</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>796186684</t>
+          <t>797752816</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -6132,13 +6140,9 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>qap traspaso nodo TLC y Teco</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -6156,14 +6160,14 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.491722</v>
+        <v>-58.458864</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.565845</v>
+        <v>-34.561167</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -6173,7 +6177,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>PUE-F</t>
+          <t>COG-H</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -6185,32 +6189,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7229</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9/16/2025</t>
+          <t>12/21/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AZURDUY JUANA 2627</t>
+          <t>MERCEDES 254</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ICD30814490</t>
+          <t>801901755</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -6220,7 +6224,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo propio</t>
+          <t>Colocar R200 para pedir traspaso de equipo</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -6242,14 +6246,14 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.469008</v>
+        <v>-58.484232</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.552083</v>
+        <v>-34.631431</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -6259,29 +6263,29 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>COG-L</t>
+          <t>DEV-L</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Fuera de Poligono OVL</t>
+          <t>ARATO-25058.PO.2DEV</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4862</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ARCOS 2263</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -6291,12 +6295,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>802857379</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -6306,11 +6310,11 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -6328,14 +6332,14 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.455082</v>
+        <v>-58.451835</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.558883</v>
+        <v>-34.562646</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -6345,7 +6349,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>BLO-P</t>
+          <t>BLO-N</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -6357,32 +6361,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5589</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ARCOS 1520</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>799540526</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -6390,13 +6394,9 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -6414,24 +6414,24 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.449125</v>
+        <v>-58.401827</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.565958</v>
+        <v>-34.617667</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>BLO-M</t>
+          <t>CEN-M</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -6554,32 +6554,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>5999</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7/19/2024</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Arenales 2096</t>
+          <t>MARMOL, JOSE 228</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>791764767</t>
+          <t>808918687</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Propio</t>
+          <t>Sin Asignar</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -6589,11 +6589,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Traspaso y retiro</t>
+          <t>Se deriva directamente a traspaso de fuente ya que hay una columna existente</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -6602,23 +6602,23 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.396996</v>
+        <v>-58.425858</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.594507</v>
+        <v>-34.61629</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -6628,12 +6628,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>RET-I</t>
+          <t>ALM-D</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>ARATO-25058.PO.1RET</t>
+          <t>Fuera de Poligono OVL</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Traspasos.xlsx
+++ b/mapa_interactivo_Traspasos.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -870,27 +870,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3659</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10/2/2024</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ALBERTI 59</t>
+          <t>NAZCA AV. 1675</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>797489950</t>
+          <t>798295165</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso y Retiro PROPIO</t>
+          <t>Columna con base picada</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -913,12 +913,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -927,24 +927,24 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.401798</v>
+        <v>-58.47874</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.61024</v>
+        <v>-34.61462</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>CEN-G</t>
+          <t>NRA-M</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -956,27 +956,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3765</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>10/23/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NAZCA AV. 1675</t>
+          <t>COLOMBRES 75</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>798295165</t>
+          <t>798385574</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Columna con base picada</t>
+          <t>Traspaso y retiro de columna con Nodo Propio</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1013,24 +1013,24 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.47874</v>
+        <v>-58.419354</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.61462</v>
+        <v>-34.612362</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>NRA-M</t>
+          <t>ALM-C</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1042,7 +1042,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3830</t>
+          <t>798513095</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1052,17 +1052,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>COLOMBRES 75</t>
+          <t>Rincon 343</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>798385574</t>
+          <t>798513095</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Traspaso y retiro de columna con Nodo Propio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1093,16 +1093,12 @@
           <t>Nodo Teco</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>-58.419354</v>
+        <v>-58.396196</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.612362</v>
+        <v>-34.613511</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1116,7 +1112,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>ALM-C</t>
+          <t>CEN-C</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1128,32 +1124,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>798513095</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10/23/2024</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Rincon 343</t>
+          <t>José Andrés Pacheco de Melo 2084</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>798513095</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1163,7 +1159,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1176,19 +1172,19 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>-58.396196</v>
+        <v>-58.395656</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.613511</v>
+        <v>-34.590364</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1198,7 +1194,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>CEN-C</t>
+          <t>RET-C</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1210,32 +1206,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>4109</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>11/19/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>José Andrés Pacheco de Melo 2084</t>
+          <t>MOLDES 1971</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>798307407</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1245,7 +1241,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1258,29 +1254,33 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M10" t="n">
-        <v>-58.395656</v>
+        <v>-58.458354</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.590364</v>
+        <v>-34.564883</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>RET-C</t>
+          <t>COG-G</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1292,17 +1292,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4109</t>
+          <t>-143</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11/19/2024</t>
+          <t>10/7/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MOLDES 1971</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1312,12 +1312,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>798307407</t>
+          <t>797752816</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1325,13 +1325,9 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Base picada</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1349,14 +1345,14 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.458354</v>
+        <v>-58.458864</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.564883</v>
+        <v>-34.561167</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1366,7 +1362,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>COG-G</t>
+          <t>COG-H</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1378,17 +1374,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>-143</t>
+          <t>5589</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10/7/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
+          <t>ARCOS 1520</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1398,12 +1394,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>797752816</t>
+          <t>799540526</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1411,7 +1407,11 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
@@ -1431,14 +1431,14 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.458864</v>
+        <v>-58.449125</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.561167</v>
+        <v>-34.565958</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>COG-H</t>
+          <t>BLO-M</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1460,32 +1460,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5589</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>12/21/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ARCOS 1520</t>
+          <t>MERCEDES 254</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>799540526</t>
+          <t>801901755</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1495,11 +1495,11 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R200 para pedir traspaso de equipo</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1517,14 +1517,14 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.449125</v>
+        <v>-58.484232</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.565958</v>
+        <v>-34.631431</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1534,44 +1534,44 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>BLO-M</t>
+          <t>DEV-L</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Fuera de Poligono OVL</t>
+          <t>ARATO-25058.PO.2DEV</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4082</t>
+          <t>4579</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12/21/2024</t>
+          <t>1/9/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MERCEDES 254</t>
+          <t>PASCO 10</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>801901755</t>
+          <t>802438793</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Colocar R200 para pedir traspaso de equipo</t>
+          <t>PIcada</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1599,65 +1599,65 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.484232</v>
+        <v>-58.397512</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.631431</v>
+        <v>-34.609923</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>DEV-L</t>
+          <t>CEN-G</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>ARATO-25058.PO.2DEV</t>
+          <t>Fuera de Poligono OVL</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4579</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1/9/2025</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PASCO 10</t>
+          <t>CUENCA 3345</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>802438793</t>
+          <t>802843289</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>PIcada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1685,28 +1685,28 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.397512</v>
+        <v>-58.496935</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.609923</v>
+        <v>-34.599084</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>CEN-G</t>
+          <t>PUE-B</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1718,32 +1718,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>4862</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUENCA 3345</t>
+          <t>ARCOS 2263</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>802843289</t>
+          <t>802857379</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1753,11 +1753,11 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1775,14 +1775,14 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.496935</v>
+        <v>-58.455082</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.599084</v>
+        <v>-34.558883</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>PUE-B</t>
+          <t>BLO-P</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1804,32 +1804,32 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4862</t>
+          <t>6029</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>3/13/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ARCOS 2263</t>
+          <t>TANDIL 4746</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>802857379</t>
+          <t>803983204</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1837,11 +1837,7 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>picada</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
         <v>0</v>
       </c>
@@ -1852,23 +1848,23 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.455082</v>
+        <v>-58.487666</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.558883</v>
+        <v>-34.649704</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1878,7 +1874,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>BLO-P</t>
+          <t>PAV-N</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1890,32 +1886,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6029</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3/13/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TANDIL 4746</t>
+          <t>THAMES 649</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>803983204</t>
+          <t>804309655</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1923,9 +1919,13 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
+        </is>
+      </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1934,33 +1934,33 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.487666</v>
+        <v>-58.441405</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.649704</v>
+        <v>-34.594348</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>PAV-N</t>
+          <t>VCR-H</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1972,7 +1972,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1982,17 +1982,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>THAMES 649</t>
+          <t>ZELARRAYAN 6147</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804309655</t>
+          <t>804309801</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2005,11 +2005,7 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
-        </is>
-      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
         <v>1</v>
       </c>
@@ -2029,14 +2025,14 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.441405</v>
+        <v>-58.483821</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.594348</v>
+        <v>-34.677698</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2046,7 +2042,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>VCR-H</t>
+          <t>PAV-Q</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -2058,32 +2054,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4179</t>
+          <t>5682</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ZELARRAYAN 6147</t>
+          <t>República Bolivariana de Venezuela 2701</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804309801</t>
+          <t>805507294</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2091,7 +2087,11 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
@@ -2107,18 +2107,18 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.483821</v>
+        <v>-58.404913</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.677698</v>
+        <v>-34.615857</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>PAV-Q</t>
+          <t>CEN-M</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -2140,7 +2140,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5682</t>
+          <t>5686</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>República Bolivariana de Venezuela 2701</t>
+          <t>HUMBERTO 1° 1999</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>805507294</t>
+          <t>805507324</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pendiente de traspaso fuente</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -2188,23 +2188,23 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.404913</v>
+        <v>-58.394304</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.615857</v>
+        <v>-34.621645</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>CEN-M</t>
+          <t>CEN-B</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2226,27 +2226,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5686</t>
+          <t>5708</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HUMBERTO 1° 1999</t>
+          <t>SARMIENTO 1741</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>805507324</t>
+          <t>805579089</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso fuente</t>
+          <t>Pendiente de traspaso nodo y fuente</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2283,10 +2283,10 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.394304</v>
+        <v>-58.391419</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.621645</v>
+        <v>-34.605543</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>CEN-B</t>
+          <t>CEN-E</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2312,7 +2312,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5708</t>
+          <t>5731</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2322,17 +2322,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SARMIENTO 1741</t>
+          <t>RIOBAMBA 659</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>805579089</t>
+          <t>805579188</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso nodo y fuente</t>
+          <t>Pendiente de traspaso nodo entro tambien como 7100</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2369,14 +2369,14 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.391419</v>
+        <v>-58.394118</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.605543</v>
+        <v>-34.601416</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>CEN-E</t>
+          <t>RET-H</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2398,32 +2398,32 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5731</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>RIOBAMBA 659</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>805579188</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso nodo entro tambien como 7100</t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2455,24 +2455,24 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.394118</v>
+        <v>-58.451835</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.601416</v>
+        <v>-34.562646</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>RET-H</t>
+          <t>BLO-N</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2484,32 +2484,32 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>-440</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>LAPRIDA 1374</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>807005369</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2519,11 +2519,11 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2541,24 +2541,24 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.451835</v>
+        <v>-58.406585</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.562646</v>
+        <v>-34.592933</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>BLO-N</t>
+          <t>AGU-B</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2570,32 +2570,32 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-440</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LAPRIDA 1374</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>807005369</t>
+          <t>ICD30334323</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2605,11 +2605,11 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Se coloco columna nueva queda pendiente de traspaso</t>
+          <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2627,14 +2627,14 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.406585</v>
+        <v>-58.401624</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.592933</v>
+        <v>-34.612001</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>AGU-B</t>
+          <t>CEN-G</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2656,17 +2656,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ALBERTI 191</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ICD30334323</t>
+          <t>ICD31456940</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2689,11 +2689,7 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
-        </is>
-      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
         <v>1</v>
       </c>
@@ -2704,7 +2700,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2713,10 +2709,10 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.401624</v>
+        <v>-58.400169</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.612001</v>
+        <v>-34.617784</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2730,7 +2726,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>CEN-G</t>
+          <t>CEN-N</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2910,27 +2906,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6998</t>
+          <t>7051</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ARENALES 3640</t>
+          <t>MORENO, JOSE MARIA AV. 345</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ICD30449342</t>
+          <t>ICD30508311</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2945,7 +2941,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Colocar R400 si bien el nodo es de TLC la fuente es nuestra no desestimar</t>
+          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2963,18 +2959,18 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.413584</v>
+        <v>-58.435017</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.58551</v>
+        <v>-34.622044</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2984,7 +2980,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>AGU-L</t>
+          <t>PCH-M</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2996,17 +2992,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7051</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 345</t>
+          <t>REPETTO, NICOLAS, DR. 93</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3016,7 +3012,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ICD30508311</t>
+          <t>ICD30593982</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3031,7 +3027,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
+          <t>traspasar nodo a columna nueva y pasar a retirar entro directamente con la nueva al lado</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -3044,7 +3040,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -3053,10 +3049,10 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.435017</v>
+        <v>-58.443232</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.622044</v>
+        <v>-34.620007</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3070,7 +3066,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>PCH-M</t>
+          <t>PCH-G</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -3082,32 +3078,32 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4698</t>
+          <t>7229</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>9/16/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>REPETTO, NICOLAS, DR. 93</t>
+          <t>AZURDUY JUANA 2627</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ICD30593982</t>
+          <t>ICD30814490</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -3117,7 +3113,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>traspasar nodo a columna nueva y pasar a retirar entro directamente con la nueva al lado</t>
+          <t>Colocar columna para pedir traspaso de nodo propio</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -3135,117 +3131,31 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.443232</v>
+        <v>-58.469008</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.620007</v>
+        <v>-34.552083</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>PCH-G</t>
+          <t>COG-L</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
-        <is>
-          <t>Fuera de Poligono OVL</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>7229</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>9/16/2025</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>AZURDUY JUANA 2627</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>ICD30814490</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Colocar columna para pedir traspaso de nodo propio</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>-58.469008</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-34.552083</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>COG-L</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
         <is>
           <t>Fuera de Poligono OVL</t>
         </is>
@@ -3262,7 +3172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3529,27 +3439,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3659</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10/2/2024</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ALBERTI 59</t>
+          <t>NAZCA AV. 1675</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>797489950</t>
+          <t>798295165</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3564,7 +3474,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso y Retiro PROPIO</t>
+          <t>Columna con base picada</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -3572,12 +3482,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -3586,24 +3496,24 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.401798</v>
+        <v>-58.47874</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.61024</v>
+        <v>-34.61462</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>CEN-G</t>
+          <t>NRA-M</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -3615,27 +3525,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3765</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>10/23/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NAZCA AV. 1675</t>
+          <t>COLOMBRES 75</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>798295165</t>
+          <t>798385574</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -3650,7 +3560,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Columna con base picada</t>
+          <t>Traspaso y retiro de columna con Nodo Propio</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -3663,7 +3573,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -3672,24 +3582,24 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.47874</v>
+        <v>-58.419354</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.61462</v>
+        <v>-34.612362</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>NRA-M</t>
+          <t>ALM-C</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -3701,7 +3611,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3830</t>
+          <t>798513095</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3711,17 +3621,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>COLOMBRES 75</t>
+          <t>Rincon 343</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>798385574</t>
+          <t>798513095</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3736,7 +3646,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Traspaso y retiro de columna con Nodo Propio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -3752,16 +3662,12 @@
           <t>Nodo Teco</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>-58.419354</v>
+        <v>-58.396196</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.612362</v>
+        <v>-34.613511</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -3775,7 +3681,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>ALM-C</t>
+          <t>CEN-C</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -3787,27 +3693,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>798513095</t>
+          <t>4109</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10/23/2024</t>
+          <t>11/19/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Rincon 343</t>
+          <t>MOLDES 1971</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>798513095</t>
+          <t>798307407</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -3822,7 +3728,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -3838,26 +3744,30 @@
           <t>Nodo Teco</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M7" t="n">
-        <v>-58.396196</v>
+        <v>-58.458354</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.613511</v>
+        <v>-34.564883</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>CEN-C</t>
+          <t>COG-G</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -3869,27 +3779,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4109</t>
+          <t>4579</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11/19/2024</t>
+          <t>1/9/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MOLDES 1971</t>
+          <t>PASCO 10</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>798307407</t>
+          <t>802438793</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -3904,7 +3814,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>PIcada</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -3922,28 +3832,28 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.458354</v>
+        <v>-58.397512</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.564883</v>
+        <v>-34.609923</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>COG-G</t>
+          <t>CEN-G</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3955,27 +3865,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4579</t>
+          <t>6029</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1/9/2025</t>
+          <t>3/13/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PASCO 10</t>
+          <t>TANDIL 4746</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>802438793</t>
+          <t>803983204</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -3988,13 +3898,9 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PIcada</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -4003,7 +3909,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -4012,24 +3918,24 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.397512</v>
+        <v>-58.487666</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.609923</v>
+        <v>-34.649704</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>CEN-G</t>
+          <t>PAV-N</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -4041,27 +3947,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6029</t>
+          <t>5682</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3/13/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TANDIL 4746</t>
+          <t>República Bolivariana de Venezuela 2701</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>803983204</t>
+          <t>805507294</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -4074,9 +3980,13 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -4085,7 +3995,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -4094,24 +4004,24 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.487666</v>
+        <v>-58.404913</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.649704</v>
+        <v>-34.615857</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>PAV-N</t>
+          <t>CEN-M</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4123,7 +4033,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5682</t>
+          <t>5686</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -4133,7 +4043,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>República Bolivariana de Venezuela 2701</t>
+          <t>HUMBERTO 1° 1999</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -4143,7 +4053,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>805507294</t>
+          <t>805507324</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -4158,7 +4068,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pendiente de traspaso fuente</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -4171,23 +4081,23 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.404913</v>
+        <v>-58.394304</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.615857</v>
+        <v>-34.621645</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -4197,7 +4107,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>CEN-M</t>
+          <t>CEN-B</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4209,27 +4119,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5686</t>
+          <t>5708</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HUMBERTO 1° 1999</t>
+          <t>SARMIENTO 1741</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>805507324</t>
+          <t>805579089</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -4244,7 +4154,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso fuente</t>
+          <t>Pendiente de traspaso nodo y fuente</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -4257,7 +4167,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -4266,10 +4176,10 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.394304</v>
+        <v>-58.391419</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.621645</v>
+        <v>-34.605543</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -4283,7 +4193,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>CEN-B</t>
+          <t>CEN-E</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -4295,7 +4205,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5708</t>
+          <t>5731</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4305,17 +4215,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SARMIENTO 1741</t>
+          <t>RIOBAMBA 659</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>805579089</t>
+          <t>805579188</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -4330,7 +4240,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso nodo y fuente</t>
+          <t>Pendiente de traspaso nodo entro tambien como 7100</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -4343,7 +4253,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -4352,14 +4262,14 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.391419</v>
+        <v>-58.394118</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.605543</v>
+        <v>-34.601416</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -4369,7 +4279,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>CEN-E</t>
+          <t>RET-H</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -4381,17 +4291,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5731</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RIOBAMBA 659</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4401,7 +4311,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>805579188</t>
+          <t>ICD30334323</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -4416,7 +4326,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso nodo entro tambien como 7100</t>
+          <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -4429,7 +4339,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -4438,10 +4348,10 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.394118</v>
+        <v>-58.401624</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.601416</v>
+        <v>-34.612001</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -4455,7 +4365,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>RET-H</t>
+          <t>CEN-G</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -4467,17 +4377,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ALBERTI 191</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4487,7 +4397,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ICD30334323</t>
+          <t>ICD31456940</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -4500,11 +4410,7 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
         <v>1</v>
       </c>
@@ -4515,7 +4421,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -4524,10 +4430,10 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.401624</v>
+        <v>-58.400169</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.612001</v>
+        <v>-34.617784</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -4541,7 +4447,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>CEN-G</t>
+          <t>CEN-N</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -4553,27 +4459,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6998</t>
+          <t>7051</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ARENALES 3640</t>
+          <t>MORENO, JOSE MARIA AV. 345</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ICD30449342</t>
+          <t>ICD30508311</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -4588,7 +4494,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Colocar R400 si bien el nodo es de TLC la fuente es nuestra no desestimar</t>
+          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -4606,18 +4512,18 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.413584</v>
+        <v>-58.435017</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.58551</v>
+        <v>-34.622044</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -4627,7 +4533,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>AGU-L</t>
+          <t>PCH-M</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -4639,17 +4545,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7051</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 345</t>
+          <t>REPETTO, NICOLAS, DR. 93</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4659,7 +4565,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ICD30508311</t>
+          <t>ICD30593982</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4674,7 +4580,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
+          <t>traspasar nodo a columna nueva y pasar a retirar entro directamente con la nueva al lado</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -4687,7 +4593,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -4696,10 +4602,10 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.435017</v>
+        <v>-58.443232</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.622044</v>
+        <v>-34.620007</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -4713,96 +4619,10 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>PCH-M</t>
+          <t>PCH-G</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
-        <is>
-          <t>Fuera de Poligono OVL</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4698</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>8/29/2025</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>REPETTO, NICOLAS, DR. 93</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ICD30593982</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>traspasar nodo a columna nueva y pasar a retirar entro directamente con la nueva al lado</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>-58.443232</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-34.620007</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>PCH-G</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
         <is>
           <t>Fuera de Poligono OVL</t>
         </is>
